--- a/biology/Zoologie/Hyloscirtus_phyllognathus/Hyloscirtus_phyllognathus.xlsx
+++ b/biology/Zoologie/Hyloscirtus_phyllognathus/Hyloscirtus_phyllognathus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyloscirtus phyllognathus est une espèce d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyloscirtus phyllognathus est une espèce d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre entre 410 et 2 190 m d'altitude[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre entre 410 et 2 190 m d'altitude, :
 en Colombie sur le versant amazonien de la cordillère Orientale ;
 en Équateur le long du versant oriental des cordillère Orientale ;
 au Pérou dans les régions de Cuzco, de Junín, de San Martín, de Pasco et d'Ucayali.</t>
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Melin, 1941 : Contributions to the knowledge of the Amphibia of South America. Göteborgs Kungliga Vetenskaps och Vitter-Hets Samhalles Handlingar, vol. 88, p. 1–71 (texte intégral).</t>
         </is>
